--- a/Figure5/Fig5b_lactation_PB_bar.xlsx
+++ b/Figure5/Fig5b_lactation_PB_bar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murrell\OneDrive - Washington University in St. Louis\Documents\Github\Ghrelinpaper\Murrell2025\Figure5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/murrell_wustl_edu/Documents/Documents/Github/Ghrelinpaper/Murrell2025/Figure5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F200A865-7298-474E-B97D-4829A977C109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F200A865-7298-474E-B97D-4829A977C109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBFBA7E4-814B-4087-86B4-4D219435B4F7}"/>
   <bookViews>
-    <workbookView xWindow="35700" yWindow="2190" windowWidth="20895" windowHeight="13905" xr2:uid="{02C1FFAC-D1F4-4366-852D-6DECA9101FE4}"/>
+    <workbookView xWindow="-27270" yWindow="1800" windowWidth="26880" windowHeight="11295" xr2:uid="{02C1FFAC-D1F4-4366-852D-6DECA9101FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,10 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Anticipitory</t>
-  </si>
-  <si>
     <t>PB</t>
+  </si>
+  <si>
+    <t>Anticipatory</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>-0.94800114700000004</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>-1.6579270770000001</v>
